--- a/users.xlsx
+++ b/users.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\00061221\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\00053759\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12180"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="505" uniqueCount="257">
   <si>
     <t>Туржанова Диана Муратовна</t>
   </si>
@@ -795,6 +795,9 @@
   </si>
   <si>
     <t>department_id</t>
+  </si>
+  <si>
+    <t>specialization_id</t>
   </si>
 </sst>
 </file>
@@ -1134,10 +1137,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D251"/>
+  <dimension ref="A1:E251"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1146,9 +1149,10 @@
     <col min="2" max="2" width="14.140625" style="4" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.7109375" style="7" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.140625" customWidth="1"/>
+    <col min="5" max="5" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>250</v>
       </c>
@@ -1161,8 +1165,11 @@
       <c r="D1" s="1" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" s="1" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1175,8 +1182,11 @@
       <c r="D2" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -1189,8 +1199,11 @@
       <c r="D3" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
@@ -1203,8 +1216,11 @@
       <c r="D4" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
@@ -1217,8 +1233,11 @@
       <c r="D5" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
@@ -1231,8 +1250,11 @@
       <c r="D6" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
@@ -1245,8 +1267,11 @@
       <c r="D7" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
@@ -1259,8 +1284,11 @@
       <c r="D8" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>7</v>
       </c>
@@ -1273,8 +1301,11 @@
       <c r="D9" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>8</v>
       </c>
@@ -1287,8 +1318,11 @@
       <c r="D10" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>9</v>
       </c>
@@ -1301,8 +1335,11 @@
       <c r="D11" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>10</v>
       </c>
@@ -1315,8 +1352,11 @@
       <c r="D12" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>11</v>
       </c>
@@ -1329,8 +1369,11 @@
       <c r="D13" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>12</v>
       </c>
@@ -1343,8 +1386,11 @@
       <c r="D14" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>13</v>
       </c>
@@ -1357,8 +1403,11 @@
       <c r="D15" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>14</v>
       </c>
@@ -1371,8 +1420,11 @@
       <c r="D16" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>241</v>
       </c>
@@ -1385,8 +1437,11 @@
       <c r="D17" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>15</v>
       </c>
@@ -1399,8 +1454,11 @@
       <c r="D18" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>16</v>
       </c>
@@ -1413,8 +1471,11 @@
       <c r="D19" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>17</v>
       </c>
@@ -1427,8 +1488,11 @@
       <c r="D20" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>18</v>
       </c>
@@ -1441,8 +1505,11 @@
       <c r="D21" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>19</v>
       </c>
@@ -1455,8 +1522,11 @@
       <c r="D22" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>20</v>
       </c>
@@ -1469,8 +1539,11 @@
       <c r="D23" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>21</v>
       </c>
@@ -1483,8 +1556,11 @@
       <c r="D24" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>22</v>
       </c>
@@ -1497,8 +1573,11 @@
       <c r="D25" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>23</v>
       </c>
@@ -1511,8 +1590,11 @@
       <c r="D26" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>24</v>
       </c>
@@ -1525,8 +1607,11 @@
       <c r="D27" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>25</v>
       </c>
@@ -1539,8 +1624,11 @@
       <c r="D28" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>26</v>
       </c>
@@ -1553,8 +1641,11 @@
       <c r="D29" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>27</v>
       </c>
@@ -1567,8 +1658,11 @@
       <c r="D30" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>28</v>
       </c>
@@ -1581,8 +1675,11 @@
       <c r="D31" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>29</v>
       </c>
@@ -1595,8 +1692,11 @@
       <c r="D32" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>30</v>
       </c>
@@ -1609,8 +1709,11 @@
       <c r="D33" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>31</v>
       </c>
@@ -1623,8 +1726,11 @@
       <c r="D34" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>32</v>
       </c>
@@ -1637,8 +1743,11 @@
       <c r="D35" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>33</v>
       </c>
@@ -1651,8 +1760,11 @@
       <c r="D36" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>34</v>
       </c>
@@ -1665,8 +1777,11 @@
       <c r="D37" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>35</v>
       </c>
@@ -1679,8 +1794,11 @@
       <c r="D38" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>36</v>
       </c>
@@ -1693,8 +1811,11 @@
       <c r="D39" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>37</v>
       </c>
@@ -1707,8 +1828,11 @@
       <c r="D40" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>38</v>
       </c>
@@ -1721,8 +1845,11 @@
       <c r="D41" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>39</v>
       </c>
@@ -1735,8 +1862,11 @@
       <c r="D42" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>242</v>
       </c>
@@ -1749,8 +1879,11 @@
       <c r="D43" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>40</v>
       </c>
@@ -1763,8 +1896,11 @@
       <c r="D44" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>41</v>
       </c>
@@ -1777,8 +1913,11 @@
       <c r="D45" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>42</v>
       </c>
@@ -1791,8 +1930,11 @@
       <c r="D46" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>43</v>
       </c>
@@ -1805,8 +1947,11 @@
       <c r="D47" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>44</v>
       </c>
@@ -1819,8 +1964,11 @@
       <c r="D48" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>45</v>
       </c>
@@ -1833,8 +1981,11 @@
       <c r="D49" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>46</v>
       </c>
@@ -1847,8 +1998,11 @@
       <c r="D50" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>47</v>
       </c>
@@ -1861,8 +2015,11 @@
       <c r="D51" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>48</v>
       </c>
@@ -1875,8 +2032,11 @@
       <c r="D52" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>49</v>
       </c>
@@ -1889,8 +2049,11 @@
       <c r="D53" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>50</v>
       </c>
@@ -1903,8 +2066,11 @@
       <c r="D54" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>51</v>
       </c>
@@ -1917,8 +2083,11 @@
       <c r="D55" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>52</v>
       </c>
@@ -1931,8 +2100,11 @@
       <c r="D56" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>53</v>
       </c>
@@ -1945,8 +2117,11 @@
       <c r="D57" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
         <v>54</v>
       </c>
@@ -1959,8 +2134,11 @@
       <c r="D58" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
         <v>55</v>
       </c>
@@ -1973,8 +2151,11 @@
       <c r="D59" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>56</v>
       </c>
@@ -1987,8 +2168,11 @@
       <c r="D60" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
         <v>57</v>
       </c>
@@ -2001,8 +2185,11 @@
       <c r="D61" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>58</v>
       </c>
@@ -2015,8 +2202,11 @@
       <c r="D62" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
         <v>59</v>
       </c>
@@ -2029,8 +2219,11 @@
       <c r="D63" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
         <v>60</v>
       </c>
@@ -2043,8 +2236,11 @@
       <c r="D64" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
         <v>61</v>
       </c>
@@ -2057,8 +2253,11 @@
       <c r="D65" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
         <v>62</v>
       </c>
@@ -2071,8 +2270,11 @@
       <c r="D66" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
         <v>63</v>
       </c>
@@ -2085,8 +2287,11 @@
       <c r="D67" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
         <v>64</v>
       </c>
@@ -2099,8 +2304,11 @@
       <c r="D68" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
         <v>65</v>
       </c>
@@ -2113,8 +2321,11 @@
       <c r="D69" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
         <v>66</v>
       </c>
@@ -2127,8 +2338,11 @@
       <c r="D70" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
         <v>67</v>
       </c>
@@ -2141,8 +2355,11 @@
       <c r="D71" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
         <v>243</v>
       </c>
@@ -2155,8 +2372,11 @@
       <c r="D72" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
         <v>68</v>
       </c>
@@ -2169,8 +2389,11 @@
       <c r="D73" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
         <v>69</v>
       </c>
@@ -2183,8 +2406,11 @@
       <c r="D74" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
         <v>70</v>
       </c>
@@ -2197,8 +2423,11 @@
       <c r="D75" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
         <v>71</v>
       </c>
@@ -2211,8 +2440,11 @@
       <c r="D76" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
         <v>72</v>
       </c>
@@ -2225,8 +2457,11 @@
       <c r="D77" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
         <v>73</v>
       </c>
@@ -2239,8 +2474,11 @@
       <c r="D78" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
         <v>74</v>
       </c>
@@ -2253,8 +2491,11 @@
       <c r="D79" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
         <v>75</v>
       </c>
@@ -2267,8 +2508,11 @@
       <c r="D80" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
         <v>76</v>
       </c>
@@ -2281,8 +2525,11 @@
       <c r="D81" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
         <v>77</v>
       </c>
@@ -2295,8 +2542,11 @@
       <c r="D82" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
         <v>78</v>
       </c>
@@ -2309,8 +2559,11 @@
       <c r="D83" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
         <v>79</v>
       </c>
@@ -2323,8 +2576,11 @@
       <c r="D84" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
         <v>80</v>
       </c>
@@ -2337,8 +2593,11 @@
       <c r="D85" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
         <v>81</v>
       </c>
@@ -2351,8 +2610,11 @@
       <c r="D86" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
         <v>82</v>
       </c>
@@ -2365,8 +2627,11 @@
       <c r="D87" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
         <v>83</v>
       </c>
@@ -2379,8 +2644,11 @@
       <c r="D88" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
         <v>84</v>
       </c>
@@ -2393,8 +2661,11 @@
       <c r="D89" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
         <v>85</v>
       </c>
@@ -2407,8 +2678,11 @@
       <c r="D90" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
         <v>86</v>
       </c>
@@ -2421,8 +2695,11 @@
       <c r="D91" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
         <v>87</v>
       </c>
@@ -2435,8 +2712,11 @@
       <c r="D92" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
         <v>88</v>
       </c>
@@ -2449,8 +2729,11 @@
       <c r="D93" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E93">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
         <v>89</v>
       </c>
@@ -2463,8 +2746,11 @@
       <c r="D94" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
         <v>90</v>
       </c>
@@ -2477,8 +2763,11 @@
       <c r="D95" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
         <v>91</v>
       </c>
@@ -2491,8 +2780,11 @@
       <c r="D96" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
         <v>92</v>
       </c>
@@ -2505,8 +2797,11 @@
       <c r="D97" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
         <v>93</v>
       </c>
@@ -2519,8 +2814,11 @@
       <c r="D98" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
         <v>94</v>
       </c>
@@ -2533,8 +2831,11 @@
       <c r="D99" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
         <v>95</v>
       </c>
@@ -2547,8 +2848,11 @@
       <c r="D100" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E100">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
         <v>96</v>
       </c>
@@ -2561,8 +2865,11 @@
       <c r="D101" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E101">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
         <v>97</v>
       </c>
@@ -2575,8 +2882,11 @@
       <c r="D102" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E102">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
         <v>98</v>
       </c>
@@ -2589,8 +2899,11 @@
       <c r="D103" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E103">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
         <v>99</v>
       </c>
@@ -2603,8 +2916,11 @@
       <c r="D104" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E104">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
         <v>100</v>
       </c>
@@ -2617,8 +2933,11 @@
       <c r="D105" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E105">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
         <v>101</v>
       </c>
@@ -2631,8 +2950,11 @@
       <c r="D106" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
         <v>102</v>
       </c>
@@ -2645,8 +2967,11 @@
       <c r="D107" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E107">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
         <v>103</v>
       </c>
@@ -2659,8 +2984,11 @@
       <c r="D108" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E108">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
         <v>104</v>
       </c>
@@ -2673,8 +3001,11 @@
       <c r="D109" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E109">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
         <v>105</v>
       </c>
@@ -2687,8 +3018,11 @@
       <c r="D110" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E110">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
         <v>106</v>
       </c>
@@ -2701,8 +3035,11 @@
       <c r="D111" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E111">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
         <v>107</v>
       </c>
@@ -2715,8 +3052,11 @@
       <c r="D112" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E112">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
         <v>108</v>
       </c>
@@ -2729,8 +3069,11 @@
       <c r="D113" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E113">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
         <v>109</v>
       </c>
@@ -2743,8 +3086,11 @@
       <c r="D114" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E114">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
         <v>110</v>
       </c>
@@ -2757,8 +3103,11 @@
       <c r="D115" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E115">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
         <v>111</v>
       </c>
@@ -2771,8 +3120,11 @@
       <c r="D116" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E116">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
         <v>112</v>
       </c>
@@ -2785,8 +3137,11 @@
       <c r="D117" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E117">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
         <v>113</v>
       </c>
@@ -2799,8 +3154,11 @@
       <c r="D118" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E118">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
         <v>114</v>
       </c>
@@ -2813,8 +3171,11 @@
       <c r="D119" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E119">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
         <v>115</v>
       </c>
@@ -2827,8 +3188,11 @@
       <c r="D120" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E120">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
         <v>116</v>
       </c>
@@ -2841,8 +3205,11 @@
       <c r="D121" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E121">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
         <v>117</v>
       </c>
@@ -2855,8 +3222,11 @@
       <c r="D122" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E122">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
         <v>118</v>
       </c>
@@ -2869,8 +3239,11 @@
       <c r="D123" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E123">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
         <v>119</v>
       </c>
@@ -2883,8 +3256,11 @@
       <c r="D124" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E124">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
         <v>120</v>
       </c>
@@ -2897,8 +3273,11 @@
       <c r="D125" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E125">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
         <v>121</v>
       </c>
@@ -2911,8 +3290,11 @@
       <c r="D126" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E126">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
         <v>122</v>
       </c>
@@ -2925,8 +3307,11 @@
       <c r="D127" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E127">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
         <v>123</v>
       </c>
@@ -2939,8 +3324,11 @@
       <c r="D128" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E128">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
         <v>124</v>
       </c>
@@ -2953,8 +3341,11 @@
       <c r="D129" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E129">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
         <v>125</v>
       </c>
@@ -2967,8 +3358,11 @@
       <c r="D130" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E130">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="s">
         <v>126</v>
       </c>
@@ -2981,8 +3375,11 @@
       <c r="D131" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E131">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
         <v>127</v>
       </c>
@@ -2995,8 +3392,11 @@
       <c r="D132" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E132">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
         <v>128</v>
       </c>
@@ -3009,8 +3409,11 @@
       <c r="D133" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E133">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
         <v>129</v>
       </c>
@@ -3023,8 +3426,11 @@
       <c r="D134" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E134">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
         <v>130</v>
       </c>
@@ -3037,8 +3443,11 @@
       <c r="D135" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E135">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
         <v>131</v>
       </c>
@@ -3051,8 +3460,11 @@
       <c r="D136" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E136">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
         <v>132</v>
       </c>
@@ -3065,8 +3477,11 @@
       <c r="D137" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E137">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
         <v>133</v>
       </c>
@@ -3079,8 +3494,11 @@
       <c r="D138" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E138">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
         <v>134</v>
       </c>
@@ -3093,8 +3511,11 @@
       <c r="D139" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E139">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
         <v>244</v>
       </c>
@@ -3107,8 +3528,11 @@
       <c r="D140" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E140">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
         <v>135</v>
       </c>
@@ -3121,8 +3545,11 @@
       <c r="D141" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E141">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
         <v>245</v>
       </c>
@@ -3135,8 +3562,11 @@
       <c r="D142" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E142">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
         <v>136</v>
       </c>
@@ -3149,8 +3579,11 @@
       <c r="D143" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E143">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
         <v>137</v>
       </c>
@@ -3163,8 +3596,11 @@
       <c r="D144" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E144">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145" s="2" t="s">
         <v>138</v>
       </c>
@@ -3177,8 +3613,11 @@
       <c r="D145" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E145">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146" s="2" t="s">
         <v>139</v>
       </c>
@@ -3191,8 +3630,11 @@
       <c r="D146" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E146">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147" s="2" t="s">
         <v>140</v>
       </c>
@@ -3205,8 +3647,11 @@
       <c r="D147" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E147">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148" s="2" t="s">
         <v>141</v>
       </c>
@@ -3219,8 +3664,11 @@
       <c r="D148" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E148">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149" s="2" t="s">
         <v>142</v>
       </c>
@@ -3233,8 +3681,11 @@
       <c r="D149" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E149">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150" s="2" t="s">
         <v>143</v>
       </c>
@@ -3247,8 +3698,11 @@
       <c r="D150" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E150">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151" s="2" t="s">
         <v>144</v>
       </c>
@@ -3261,8 +3715,11 @@
       <c r="D151" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E151">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152" s="2" t="s">
         <v>145</v>
       </c>
@@ -3275,8 +3732,11 @@
       <c r="D152" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E152">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153" s="2" t="s">
         <v>146</v>
       </c>
@@ -3289,8 +3749,11 @@
       <c r="D153" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E153">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154" s="2" t="s">
         <v>147</v>
       </c>
@@ -3303,8 +3766,11 @@
       <c r="D154" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E154">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155" s="2" t="s">
         <v>148</v>
       </c>
@@ -3317,8 +3783,11 @@
       <c r="D155" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E155">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156" s="2" t="s">
         <v>149</v>
       </c>
@@ -3331,8 +3800,11 @@
       <c r="D156" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E156">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157" s="2" t="s">
         <v>150</v>
       </c>
@@ -3345,8 +3817,11 @@
       <c r="D157" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E157">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158" s="2" t="s">
         <v>151</v>
       </c>
@@ -3359,8 +3834,11 @@
       <c r="D158" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E158">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159" s="2" t="s">
         <v>152</v>
       </c>
@@ -3373,8 +3851,11 @@
       <c r="D159" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E159">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160" s="2" t="s">
         <v>153</v>
       </c>
@@ -3387,8 +3868,11 @@
       <c r="D160" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E160">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A161" s="2" t="s">
         <v>154</v>
       </c>
@@ -3401,8 +3885,11 @@
       <c r="D161" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E161">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A162" s="2" t="s">
         <v>155</v>
       </c>
@@ -3415,8 +3902,11 @@
       <c r="D162" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E162">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A163" s="2" t="s">
         <v>156</v>
       </c>
@@ -3429,8 +3919,11 @@
       <c r="D163" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E163">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A164" s="2" t="s">
         <v>246</v>
       </c>
@@ -3443,8 +3936,11 @@
       <c r="D164" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E164">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A165" s="2" t="s">
         <v>247</v>
       </c>
@@ -3457,8 +3953,11 @@
       <c r="D165" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E165">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166" s="2" t="s">
         <v>157</v>
       </c>
@@ -3471,8 +3970,11 @@
       <c r="D166" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E166">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A167" s="2" t="s">
         <v>158</v>
       </c>
@@ -3485,8 +3987,11 @@
       <c r="D167" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E167">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A168" s="2" t="s">
         <v>159</v>
       </c>
@@ -3499,8 +4004,11 @@
       <c r="D168" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E168">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A169" s="2" t="s">
         <v>160</v>
       </c>
@@ -3513,8 +4021,11 @@
       <c r="D169" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E169">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A170" s="2" t="s">
         <v>161</v>
       </c>
@@ -3527,8 +4038,11 @@
       <c r="D170" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E170">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A171" s="2" t="s">
         <v>162</v>
       </c>
@@ -3541,8 +4055,11 @@
       <c r="D171" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E171">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A172" s="2" t="s">
         <v>163</v>
       </c>
@@ -3555,8 +4072,11 @@
       <c r="D172" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E172">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A173" s="2" t="s">
         <v>164</v>
       </c>
@@ -3569,8 +4089,11 @@
       <c r="D173" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E173">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A174" s="2" t="s">
         <v>165</v>
       </c>
@@ -3583,8 +4106,11 @@
       <c r="D174" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E174">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A175" s="2" t="s">
         <v>166</v>
       </c>
@@ -3597,8 +4123,11 @@
       <c r="D175" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E175">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A176" s="2" t="s">
         <v>167</v>
       </c>
@@ -3611,8 +4140,11 @@
       <c r="D176" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E176">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A177" s="2" t="s">
         <v>168</v>
       </c>
@@ -3625,8 +4157,11 @@
       <c r="D177" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E177">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A178" s="2" t="s">
         <v>169</v>
       </c>
@@ -3639,8 +4174,11 @@
       <c r="D178" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E178">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A179" s="2" t="s">
         <v>170</v>
       </c>
@@ -3653,8 +4191,11 @@
       <c r="D179" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E179">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A180" s="2" t="s">
         <v>171</v>
       </c>
@@ -3667,8 +4208,11 @@
       <c r="D180" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E180">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A181" s="2" t="s">
         <v>172</v>
       </c>
@@ -3681,8 +4225,11 @@
       <c r="D181" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E181">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A182" s="2" t="s">
         <v>173</v>
       </c>
@@ -3695,8 +4242,11 @@
       <c r="D182" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E182">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A183" s="2" t="s">
         <v>174</v>
       </c>
@@ -3709,8 +4259,11 @@
       <c r="D183" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E183">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A184" s="2" t="s">
         <v>175</v>
       </c>
@@ -3723,8 +4276,11 @@
       <c r="D184" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E184">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A185" s="2" t="s">
         <v>176</v>
       </c>
@@ -3737,8 +4293,11 @@
       <c r="D185" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E185">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A186" s="2" t="s">
         <v>177</v>
       </c>
@@ -3751,8 +4310,11 @@
       <c r="D186" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E186">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A187" s="2" t="s">
         <v>178</v>
       </c>
@@ -3765,8 +4327,11 @@
       <c r="D187" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E187">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A188" s="2" t="s">
         <v>179</v>
       </c>
@@ -3779,8 +4344,11 @@
       <c r="D188" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E188">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A189" s="2" t="s">
         <v>180</v>
       </c>
@@ -3793,8 +4361,11 @@
       <c r="D189" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E189">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A190" s="2" t="s">
         <v>181</v>
       </c>
@@ -3807,8 +4378,11 @@
       <c r="D190" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E190">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A191" s="2" t="s">
         <v>182</v>
       </c>
@@ -3821,8 +4395,11 @@
       <c r="D191" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E191">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A192" s="2" t="s">
         <v>183</v>
       </c>
@@ -3835,8 +4412,11 @@
       <c r="D192" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E192">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A193" s="2" t="s">
         <v>184</v>
       </c>
@@ -3849,8 +4429,11 @@
       <c r="D193" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E193">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A194" s="2" t="s">
         <v>185</v>
       </c>
@@ -3863,8 +4446,11 @@
       <c r="D194" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E194">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A195" s="2" t="s">
         <v>186</v>
       </c>
@@ -3877,8 +4463,11 @@
       <c r="D195" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E195">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A196" s="2" t="s">
         <v>187</v>
       </c>
@@ -3891,8 +4480,11 @@
       <c r="D196" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E196">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A197" s="2" t="s">
         <v>188</v>
       </c>
@@ -3905,8 +4497,11 @@
       <c r="D197" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E197">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A198" s="2" t="s">
         <v>189</v>
       </c>
@@ -3919,8 +4514,11 @@
       <c r="D198" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E198">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A199" s="2" t="s">
         <v>190</v>
       </c>
@@ -3933,8 +4531,11 @@
       <c r="D199" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E199">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A200" s="2" t="s">
         <v>191</v>
       </c>
@@ -3947,8 +4548,11 @@
       <c r="D200" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E200">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A201" s="2" t="s">
         <v>192</v>
       </c>
@@ -3961,8 +4565,11 @@
       <c r="D201" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E201">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A202" s="2" t="s">
         <v>193</v>
       </c>
@@ -3975,8 +4582,11 @@
       <c r="D202" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E202">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A203" s="2" t="s">
         <v>194</v>
       </c>
@@ -3989,8 +4599,11 @@
       <c r="D203" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E203">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A204" s="2" t="s">
         <v>195</v>
       </c>
@@ -4003,8 +4616,11 @@
       <c r="D204" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E204">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A205" s="2" t="s">
         <v>196</v>
       </c>
@@ -4017,8 +4633,11 @@
       <c r="D205" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E205">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A206" s="2" t="s">
         <v>197</v>
       </c>
@@ -4031,8 +4650,11 @@
       <c r="D206" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E206">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A207" s="2" t="s">
         <v>198</v>
       </c>
@@ -4045,8 +4667,11 @@
       <c r="D207" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E207">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A208" s="2" t="s">
         <v>199</v>
       </c>
@@ -4059,8 +4684,11 @@
       <c r="D208" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E208">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A209" s="2" t="s">
         <v>200</v>
       </c>
@@ -4073,8 +4701,11 @@
       <c r="D209" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E209">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A210" s="2" t="s">
         <v>201</v>
       </c>
@@ -4087,8 +4718,11 @@
       <c r="D210" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E210">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A211" s="2" t="s">
         <v>202</v>
       </c>
@@ -4101,8 +4735,11 @@
       <c r="D211" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E211">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A212" s="2" t="s">
         <v>203</v>
       </c>
@@ -4115,8 +4752,11 @@
       <c r="D212" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E212">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A213" s="2" t="s">
         <v>204</v>
       </c>
@@ -4129,8 +4769,11 @@
       <c r="D213" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E213">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A214" s="2" t="s">
         <v>205</v>
       </c>
@@ -4143,8 +4786,11 @@
       <c r="D214" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E214">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A215" s="2" t="s">
         <v>206</v>
       </c>
@@ -4157,8 +4803,11 @@
       <c r="D215" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E215">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A216" s="2" t="s">
         <v>207</v>
       </c>
@@ -4171,8 +4820,11 @@
       <c r="D216" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E216">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A217" s="2" t="s">
         <v>208</v>
       </c>
@@ -4185,8 +4837,11 @@
       <c r="D217" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E217">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A218" s="2" t="s">
         <v>209</v>
       </c>
@@ -4199,8 +4854,11 @@
       <c r="D218" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E218">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A219" s="2" t="s">
         <v>210</v>
       </c>
@@ -4213,8 +4871,11 @@
       <c r="D219" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E219">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A220" s="2" t="s">
         <v>211</v>
       </c>
@@ -4227,8 +4888,11 @@
       <c r="D220" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E220">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A221" s="2" t="s">
         <v>212</v>
       </c>
@@ -4241,8 +4905,11 @@
       <c r="D221" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E221">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A222" s="2" t="s">
         <v>213</v>
       </c>
@@ -4255,8 +4922,11 @@
       <c r="D222" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E222">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A223" s="2" t="s">
         <v>214</v>
       </c>
@@ -4269,8 +4939,11 @@
       <c r="D223" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E223">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A224" s="2" t="s">
         <v>215</v>
       </c>
@@ -4283,8 +4956,11 @@
       <c r="D224" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E224">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A225" s="2" t="s">
         <v>216</v>
       </c>
@@ -4297,8 +4973,11 @@
       <c r="D225" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E225">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A226" s="2" t="s">
         <v>217</v>
       </c>
@@ -4311,8 +4990,11 @@
       <c r="D226" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E226">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A227" s="2" t="s">
         <v>218</v>
       </c>
@@ -4325,8 +5007,11 @@
       <c r="D227" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E227">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A228" s="2" t="s">
         <v>219</v>
       </c>
@@ -4339,8 +5024,11 @@
       <c r="D228" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E228">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A229" s="2" t="s">
         <v>220</v>
       </c>
@@ -4353,8 +5041,11 @@
       <c r="D229" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E229">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A230" s="2" t="s">
         <v>221</v>
       </c>
@@ -4367,8 +5058,11 @@
       <c r="D230" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E230">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A231" s="2" t="s">
         <v>222</v>
       </c>
@@ -4381,8 +5075,11 @@
       <c r="D231" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E231">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A232" s="2" t="s">
         <v>223</v>
       </c>
@@ -4395,8 +5092,11 @@
       <c r="D232" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E232">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A233" s="2" t="s">
         <v>224</v>
       </c>
@@ -4409,8 +5109,11 @@
       <c r="D233" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E233">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A234" s="2" t="s">
         <v>225</v>
       </c>
@@ -4423,8 +5126,11 @@
       <c r="D234" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E234">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A235" s="2" t="s">
         <v>226</v>
       </c>
@@ -4437,8 +5143,11 @@
       <c r="D235" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E235">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A236" s="2" t="s">
         <v>227</v>
       </c>
@@ -4451,8 +5160,11 @@
       <c r="D236" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E236">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A237" s="2" t="s">
         <v>228</v>
       </c>
@@ -4465,8 +5177,11 @@
       <c r="D237" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E237">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A238" s="2" t="s">
         <v>229</v>
       </c>
@@ -4479,8 +5194,11 @@
       <c r="D238" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E238">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A239" s="2" t="s">
         <v>248</v>
       </c>
@@ -4493,8 +5211,11 @@
       <c r="D239" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E239">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A240" s="2" t="s">
         <v>249</v>
       </c>
@@ -4507,8 +5228,11 @@
       <c r="D240" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E240">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A241" s="2" t="s">
         <v>230</v>
       </c>
@@ -4521,8 +5245,11 @@
       <c r="D241" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E241">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A242" s="2" t="s">
         <v>231</v>
       </c>
@@ -4535,8 +5262,11 @@
       <c r="D242" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E242">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A243" s="2" t="s">
         <v>232</v>
       </c>
@@ -4549,8 +5279,11 @@
       <c r="D243" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E243">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A244" s="2" t="s">
         <v>233</v>
       </c>
@@ -4563,8 +5296,11 @@
       <c r="D244" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E244">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A245" s="2" t="s">
         <v>234</v>
       </c>
@@ -4577,8 +5313,11 @@
       <c r="D245" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E245">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A246" s="2" t="s">
         <v>235</v>
       </c>
@@ -4591,8 +5330,11 @@
       <c r="D246" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E246">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A247" s="2" t="s">
         <v>236</v>
       </c>
@@ -4605,8 +5347,11 @@
       <c r="D247" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E247">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A248" s="2" t="s">
         <v>237</v>
       </c>
@@ -4619,8 +5364,11 @@
       <c r="D248" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E248">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A249" s="2" t="s">
         <v>238</v>
       </c>
@@ -4633,8 +5381,11 @@
       <c r="D249" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E249">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="250" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A250" s="2" t="s">
         <v>239</v>
       </c>
@@ -4647,8 +5398,11 @@
       <c r="D250" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E250">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A251" s="2" t="s">
         <v>240</v>
       </c>
@@ -4660,6 +5414,9 @@
       </c>
       <c r="D251" t="s">
         <v>254</v>
+      </c>
+      <c r="E251">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
